--- a/back/fixtures/temp/select.xlsx
+++ b/back/fixtures/temp/select.xlsx
@@ -26,56 +26,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
+    <t>마을 안 쪽으로 간다</t>
+  </si>
+  <si>
+    <t>여행을 계속한다</t>
+  </si>
+  <si>
+    <t>토끼랑 함께한다</t>
+  </si>
+  <si>
+    <t>마을을 좀 더 구경한다</t>
+  </si>
+  <si>
+    <t>강이 보이는쪽으로 간다</t>
+  </si>
+  <si>
+    <t>큰 나무 쪽으로 간다</t>
+  </si>
+  <si>
+    <t>빌딩 쪽으로 간다</t>
+  </si>
+  <si>
+    <t>피리</t>
+  </si>
+  <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>substory_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>branch_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 안 쪽으로 간다</t>
-  </si>
-  <si>
-    <t>여행을 계속한다</t>
-  </si>
-  <si>
-    <t>토끼랑 함께한다</t>
-  </si>
-  <si>
-    <t>마을을 좀 더 구경한다</t>
-  </si>
-  <si>
-    <t>강이 보이는쪽으로 간다</t>
-  </si>
-  <si>
-    <t>큰 나무 쪽으로 간다</t>
-  </si>
-  <si>
-    <t>빌딩 쪽으로 간다</t>
-  </si>
-  <si>
-    <t>피리</t>
+  </si>
+  <si>
+    <t>수상한 여우를 따라간다</t>
+  </si>
+  <si>
+    <t>급한 토끼를 쫓아간다</t>
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수상한 여우를 따라간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>급한 토끼를 쫓아간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -408,7 +401,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -419,16 +412,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -436,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -450,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -464,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -478,10 +471,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -492,10 +485,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -506,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -520,10 +513,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -534,10 +527,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -548,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -562,10 +555,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -576,10 +569,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -590,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>6</v>
